--- a/v0.7/StructureDefinition-hcp-signature.xlsx
+++ b/v0.7/StructureDefinition-hcp-signature.xlsx
@@ -670,7 +670,7 @@
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="36.2890625" customWidth="true" bestFit="true"/>
